--- a/MenstruAccion/cuanto_cuesta_menstruar/2021 Marzo/Fuentes/serie_inflacion.xlsx
+++ b/MenstruAccion/cuanto_cuesta_menstruar/2021 Marzo/Fuentes/serie_inflacion.xlsx
@@ -40,10 +40,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="165" formatCode="mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -79,6 +79,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -152,6 +165,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,17 +257,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -517,6 +546,90 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>44075</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>346.6207</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>360.8692</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>377.8509</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>359.657</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>378.0896</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>389.5109</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>371.0211</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>388.3864</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>403.8029</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>385.8826</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>405.2871</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>424.9668</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>401.5071</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>424.8374</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>439.3776</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>415.8595</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>441.0722</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>454.7265</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>44256</v>
       </c>
     </row>
   </sheetData>

--- a/MenstruAccion/cuanto_cuesta_menstruar/2021 Marzo/Fuentes/serie_inflacion.xlsx
+++ b/MenstruAccion/cuanto_cuesta_menstruar/2021 Marzo/Fuentes/serie_inflacion.xlsx
@@ -168,11 +168,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,10 +264,10 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -547,13 +547,13 @@
       <c r="A20" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="3" t="n">
         <v>346.6207</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="4" t="n">
         <v>360.8692</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="4" t="n">
         <v>377.8509</v>
       </c>
     </row>
@@ -561,13 +561,13 @@
       <c r="A21" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="3" t="n">
         <v>359.657</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="4" t="n">
         <v>378.0896</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="4" t="n">
         <v>389.5109</v>
       </c>
     </row>
@@ -575,13 +575,13 @@
       <c r="A22" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="3" t="n">
         <v>371.0211</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="4" t="n">
         <v>388.3864</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="4" t="n">
         <v>403.8029</v>
       </c>
     </row>
@@ -589,13 +589,13 @@
       <c r="A23" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="3" t="n">
         <v>385.8826</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="4" t="n">
         <v>405.2871</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="4" t="n">
         <v>424.9668</v>
       </c>
     </row>
@@ -603,13 +603,13 @@
       <c r="A24" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="3" t="n">
         <v>401.5071</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="4" t="n">
         <v>424.8374</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="4" t="n">
         <v>439.3776</v>
       </c>
     </row>
@@ -617,19 +617,28 @@
       <c r="A25" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="5" t="n">
         <v>415.8595</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="6" t="n">
         <v>441.0722</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="6" t="n">
         <v>454.7265</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>44256</v>
+      </c>
+      <c r="B26" s="7" t="n">
+        <v>435.8657</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>461.3238</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>472.856</v>
       </c>
     </row>
   </sheetData>
